--- a/docs/excel/TBirckRefresh.xlsx
+++ b/docs/excel/TBirckRefresh.xlsx
@@ -543,7 +543,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,7 +628,7 @@
         <v>31</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
